--- a/www/IndicatorsPerCountry/Mozambique_GDPperCapita_TerritorialRef_1975_2012_CCode_508.xlsx
+++ b/www/IndicatorsPerCountry/Mozambique_GDPperCapita_TerritorialRef_1975_2012_CCode_508.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mozambique_GDPperCapita_TerritorialRef_1975_2012_CCode_508.xlsx
+++ b/www/IndicatorsPerCountry/Mozambique_GDPperCapita_TerritorialRef_1975_2012_CCode_508.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>1155</t>
-  </si>
-  <si>
-    <t>1178</t>
-  </si>
-  <si>
-    <t>1199</t>
-  </si>
-  <si>
-    <t>1207</t>
-  </si>
-  <si>
-    <t>1259</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>1327</t>
-  </si>
-  <si>
-    <t>1337</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t>1549</t>
-  </si>
-  <si>
-    <t>1693</t>
-  </si>
-  <si>
-    <t>1743</t>
-  </si>
-  <si>
-    <t>1816</t>
-  </si>
-  <si>
-    <t>1823</t>
-  </si>
-  <si>
-    <t>1873</t>
-  </si>
-  <si>
-    <t>1684</t>
-  </si>
-  <si>
-    <t>1404</t>
-  </si>
-  <si>
-    <t>1295</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>1215</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>1217</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>1067</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1113.56112981</t>
-  </si>
-  <si>
-    <t>1166.90347306</t>
-  </si>
-  <si>
-    <t>1089.44346239</t>
-  </si>
-  <si>
-    <t>1144.4817116</t>
-  </si>
-  <si>
-    <t>1128.80358236</t>
-  </si>
-  <si>
-    <t>1085.21389477</t>
-  </si>
-  <si>
-    <t>1207.95355679</t>
-  </si>
-  <si>
-    <t>1307.67513427</t>
-  </si>
-  <si>
-    <t>1427.70672492</t>
-  </si>
-  <si>
-    <t>1513.24645459</t>
-  </si>
-  <si>
-    <t>1503.019121</t>
-  </si>
-  <si>
-    <t>1650.59451806</t>
-  </si>
-  <si>
-    <t>1764.04683743</t>
-  </si>
-  <si>
-    <t>1838.07421141</t>
-  </si>
-  <si>
-    <t>1940.3928171</t>
-  </si>
-  <si>
-    <t>2057.93252796</t>
-  </si>
-  <si>
-    <t>2188.2915055</t>
-  </si>
-  <si>
-    <t>2296.44860654</t>
-  </si>
-  <si>
-    <t>2399.48657755</t>
-  </si>
-  <si>
-    <t>2495.3165142</t>
-  </si>
-  <si>
-    <t>2613.02667621</t>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>2131</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>2153</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>2271</t>
+  </si>
+  <si>
+    <t>2469</t>
+  </si>
+  <si>
+    <t>2699</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2895</t>
+  </si>
+  <si>
+    <t>2906</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>2684</t>
+  </si>
+  <si>
+    <t>2238</t>
+  </si>
+  <si>
+    <t>2064</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1694</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1719.09911990892</t>
+  </si>
+  <si>
+    <t>1482.41662537559</t>
+  </si>
+  <si>
+    <t>1439.28970453715</t>
+  </si>
+  <si>
+    <t>1312.37202170923</t>
+  </si>
+  <si>
+    <t>1165.81016002159</t>
+  </si>
+  <si>
+    <t>1325.5953686561</t>
+  </si>
+  <si>
+    <t>1323.69361439489</t>
+  </si>
+  <si>
+    <t>1335.6607344147</t>
+  </si>
+  <si>
+    <t>1301.5763001843</t>
+  </si>
+  <si>
+    <t>1196.01487944941</t>
+  </si>
+  <si>
+    <t>1219.38101904879</t>
+  </si>
+  <si>
+    <t>1199.73312271067</t>
+  </si>
+  <si>
+    <t>1155.70369460544</t>
+  </si>
+  <si>
+    <t>1125.83211784106</t>
+  </si>
+  <si>
+    <t>1107.53380416932</t>
+  </si>
+  <si>
+    <t>1099.34178265069</t>
+  </si>
+  <si>
+    <t>1067.96645622593</t>
+  </si>
+  <si>
+    <t>1031.36220648499</t>
+  </si>
+  <si>
+    <t>991.745235314568</t>
+  </si>
+  <si>
+    <t>956.530484693982</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1113</t>
   </si>
   <si>
     <t>Description</t>
@@ -1014,7 +1029,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -1031,7 +1046,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1048,7 +1063,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1080,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1097,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1099,7 +1114,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1116,7 +1131,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1133,7 +1148,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -1150,7 +1165,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1167,7 +1182,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -1184,7 +1199,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -1201,7 +1216,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -1218,7 +1233,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55">
@@ -1235,7 +1250,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -1252,7 +1267,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1269,7 +1284,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -1286,7 +1301,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -1303,7 +1318,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
@@ -1320,7 +1335,7 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
@@ -1337,7 +1352,7 @@
         <v>2009.0</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -1354,7 +1369,109 @@
         <v>2010.0</v>
       </c>
       <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1372,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
